--- a/input/fuzzy_risk_evaluation.xlsx
+++ b/input/fuzzy_risk_evaluation.xlsx
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>

--- a/input/fuzzy_risk_evaluation.xlsx
+++ b/input/fuzzy_risk_evaluation.xlsx
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>

--- a/input/fuzzy_risk_evaluation.xlsx
+++ b/input/fuzzy_risk_evaluation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>风险评价指引</t>
   </si>
@@ -91,60 +91,72 @@
     <t>风险因素</t>
   </si>
   <si>
-    <t>专家1（技术）</t>
-  </si>
-  <si>
-    <t>专家2（业务）</t>
-  </si>
-  <si>
-    <t>专家3（运维）</t>
-  </si>
-  <si>
-    <t>专家4（合规）</t>
-  </si>
-  <si>
-    <t>专家5（厂商）</t>
+    <t>专家1</t>
+  </si>
+  <si>
+    <t>专家2</t>
+  </si>
+  <si>
+    <t>专家3</t>
+  </si>
+  <si>
+    <t>专家4</t>
+  </si>
+  <si>
+    <t>专家5</t>
+  </si>
+  <si>
+    <t>专家6</t>
+  </si>
+  <si>
+    <t>专家7</t>
+  </si>
+  <si>
+    <t>专家8</t>
+  </si>
+  <si>
+    <t>专家9</t>
+  </si>
+  <si>
+    <t>专家10</t>
   </si>
   <si>
     <t>监管风险C6.2</t>
   </si>
   <si>
+    <t>数据备份风险C4.4</t>
+  </si>
+  <si>
+    <t>技术组件不合规C6.3</t>
+  </si>
+  <si>
     <t>政策风险C6.1</t>
   </si>
   <si>
-    <t>技术组件不合规C6.3</t>
-  </si>
-  <si>
-    <t>进度风险C3.4</t>
-  </si>
-  <si>
-    <t>需求风险C3.3</t>
-  </si>
-  <si>
     <t>业务连续性风险C2.1</t>
   </si>
   <si>
-    <t>成本风险C5.1</t>
+    <t>数据不完整C2.4</t>
+  </si>
+  <si>
+    <t>监控机制缺失C4.3</t>
+  </si>
+  <si>
+    <t>应急处置风险C4.2</t>
   </si>
   <si>
     <t>产品维保风险C5.3</t>
   </si>
   <si>
-    <t>监控机制缺失C4.3</t>
-  </si>
-  <si>
-    <t>合同风险C5.2</t>
+    <t>设备故障风险C4.1</t>
+  </si>
+  <si>
+    <t>安全风险C1.4</t>
   </si>
   <si>
     <t>业务功能缺失C2.2</t>
   </si>
   <si>
-    <t>可靠性风险C1.1</t>
-  </si>
-  <si>
-    <t>系统集成风险C1.6</t>
-  </si>
-  <si>
     <t>专家编号</t>
   </si>
   <si>
@@ -155,21 +167,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>专家1</t>
-  </si>
-  <si>
-    <t>专家2</t>
-  </si>
-  <si>
-    <t>专家3</t>
-  </si>
-  <si>
-    <t>专家4</t>
-  </si>
-  <si>
-    <t>专家5</t>
   </si>
 </sst>
 </file>
@@ -838,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,8 +843,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1230,10 +1234,10 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1294,7 +1298,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1302,7 +1306,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1310,7 +1314,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1318,7 +1322,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1334,21 +1338,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="16.3076923076923" customWidth="1"/>
+    <col min="1" max="1" width="19.6923076923077" customWidth="1"/>
+    <col min="2" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1366,264 +1370,439 @@
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="J2" s="6">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="I3" s="6">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="I4" s="6">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6">
         <v>9</v>
       </c>
-      <c r="F4" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6">
         <v>9</v>
       </c>
-      <c r="D6" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="J5" s="6">
+        <v>6</v>
+      </c>
+      <c r="K5" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="I8" s="6">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6">
+        <v>8</v>
+      </c>
+      <c r="K8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="I9" s="6">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="J9" s="6">
+        <v>7</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5</v>
+      </c>
+      <c r="K10" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="J11" s="6">
+        <v>6</v>
+      </c>
+      <c r="K11" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="I12" s="6">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6">
+        <v>9</v>
+      </c>
+      <c r="K12" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5</v>
+      </c>
+      <c r="H13" s="6">
+        <v>9</v>
+      </c>
+      <c r="I13" s="6">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="K13" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1636,13 +1815,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
@@ -1651,67 +1830,117 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/fuzzy_risk_evaluation.xlsx
+++ b/input/fuzzy_risk_evaluation.xlsx
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
